--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2270,158 +2270,158 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2577,59 +2577,59 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,81 +8533,81 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>15</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" t="inlineStr">
+      <c r="D231" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>6</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="F393" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G393" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="L393" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2270,158 +2270,158 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2577,59 +2577,59 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -8557,57 +8557,57 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>21</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>0</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>21</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>21</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>2</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>21</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>3</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>21</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>4</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>21</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>5</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>21</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>6</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>21</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>7</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="F393" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G393" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="L393" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
